--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rimadas/git/SeleniumDataDrivenFramework/src/test/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rimadas/eclipse-workspace/SeleniumDataDrivenFramework/src/test/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54C2A6E-0310-974A-99F2-BEC03F0D9730}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E758EBCB-2BE0-C649-9FD5-0D622B894F4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{3ADA70C4-690B-F340-9622-597162287630}"/>
+    <workbookView xWindow="22820" yWindow="1460" windowWidth="12620" windowHeight="10360" activeTab="1" xr2:uid="{3ADA70C4-690B-F340-9622-597162287630}"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomer" sheetId="1" r:id="rId1"/>
+    <sheet name="openAccount" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>FirstName</t>
   </si>
@@ -36,19 +37,43 @@
     <t>PostCode</t>
   </si>
   <si>
-    <t>Rima</t>
-  </si>
-  <si>
-    <t>Das</t>
-  </si>
-  <si>
-    <t>Animesh</t>
-  </si>
-  <si>
-    <t>Jyotsna</t>
-  </si>
-  <si>
-    <t>Dulal</t>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Kaira</t>
+  </si>
+  <si>
+    <t>Advani</t>
+  </si>
+  <si>
+    <t>Vicky</t>
+  </si>
+  <si>
+    <t>Kaushal</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Ranbir</t>
+  </si>
+  <si>
+    <t>Kaira Advani</t>
+  </si>
+  <si>
+    <t>Vicky Kaushal</t>
+  </si>
+  <si>
+    <t>Ranbir Kapoor</t>
   </si>
 </sst>
 </file>
@@ -400,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45CB930-8D08-CA48-8680-5F51E4578250}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,10 +446,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>98980</v>
@@ -432,10 +457,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>7879</v>
@@ -443,24 +468,65 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>87879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77823ECE-AFC3-AA40-B1CB-0BC156BAA1BA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4">
-        <v>87879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>79808</v>
       </c>
     </row>
   </sheetData>
